--- a/pred_ohlcv/54_21/2020-01-13 APIS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 APIS ohlcv.xlsx
@@ -886,7 +886,7 @@
         <v>-6326523.151299999</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-4892647.282999999</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-4895646.802299999</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-4894412.802299999</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-4849270.429599999</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-5371940.038399998</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-8253348.758699998</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-26863489.24911933</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-29062578.91261933</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-29140729.36911933</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-27249813.39941933</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-28197690.01651933</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-27944241.80231933</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-30639458.38831047</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-32224494.78301047</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-30972299.95311047</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-13 APIS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 APIS ohlcv.xlsx
@@ -886,7 +886,7 @@
         <v>-6326523.151299999</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-4892647.282999999</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-4895646.802299999</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-4894412.802299999</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-5769767.887499998</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-4849270.429599999</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-5371940.038399998</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-8253348.758699998</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-8402511.652799997</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-8506670.646299997</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-29140729.36911933</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-27249813.39941933</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-29173928.06771047</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
